--- a/Docs/V1324Sco_Finzell_Optical_Spectra_METADataFile_Example.xlsx
+++ b/Docs/V1324Sco_Finzell_Optical_Spectra_METADataFile_Example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27940" windowHeight="15800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="V1324Sco_Finzell_Optical_Spectr" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
   <si>
     <t>V1324Sco_Wagner_VLT_UVES_2012Jun04_1.txt</t>
   </si>
@@ -151,6 +151,33 @@
   </si>
   <si>
     <t>WAVE COL NUM</t>
+  </si>
+  <si>
+    <t>FLUX ERR COL NUM</t>
+  </si>
+  <si>
+    <t>FLUX UNITS</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>OBSERVER</t>
+  </si>
+  <si>
+    <t>TELESCOPE</t>
+  </si>
+  <si>
+    <t>INSTRUMENT</t>
+  </si>
+  <si>
+    <t>DISPERSION</t>
+  </si>
+  <si>
+    <t>WAVE RANGE 1</t>
+  </si>
+  <si>
+    <t>WAVE RANGE 2</t>
   </si>
 </sst>
 </file>
@@ -186,8 +213,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,741 +552,780 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>2456082</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>0.02</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>3700</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>2456082</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>0.02</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>5655</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>7595</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>2456082</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>0.02</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>7564</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>9500</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>2456086</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>0.5</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>3800</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>8000</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>2456092</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>0.5</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>3800</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>8000</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>2456096</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>0.5</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>3800</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>7250</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>2456098</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>0.6</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>3700</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>9500</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>2456099</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>5.5</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>3240</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>6940</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>2456101</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
         <v>5620</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>7250</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>2456102</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>6.2</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>3700</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>5420</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>2456103</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>1.5</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>3650</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>5420</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>2456111</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>1.5</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>3650</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>6940</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>2456115</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
         <v>5620</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <v>9500</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>2456119</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>5.5</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>3240</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <v>6940</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>2456123</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
         <v>5620</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="1">
         <v>9200</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>2456124</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>3700</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <v>9500</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>2456127</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>5.5</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>3240</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>2456432</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>0.5</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>3420</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="1">
         <v>7000</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>2456508</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
         <v>3000</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <v>7000</v>
       </c>
     </row>
